--- a/data/sales_forecast_02_12.xlsx
+++ b/data/sales_forecast_02_12.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -426,7 +426,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -512,15 +512,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,15 +528,15 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="119">
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -609,492 +609,6 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -20281,7 +19795,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица3" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:N117" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField numFmtId="14" showAll="0">
@@ -21191,37 +20705,37 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Сумма по полю timesfm" fld="1" baseField="0" baseItem="0" numFmtId="169"/>
+    <dataField name="Сумма по полю timesfm" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="17">
-    <format dxfId="118">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="3">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="5">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="6">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="7">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="8">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="50">
@@ -21279,7 +20793,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="108">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="50">
@@ -21337,7 +20851,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="107">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="14">
@@ -21359,10 +20873,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="12">
@@ -21382,17 +20896,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="104">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="15">
       <pivotArea field="2" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="102">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0"/>
@@ -21403,6 +20917,152 @@
       </pivotArea>
     </format>
   </formats>
+  <chartFormats count="12">
+    <chartFormat chart="1" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -62699,8 +62359,8 @@
   <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -67835,121 +67495,100 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C119" s="4">
-        <f>C89/C118</f>
-        <v>5519.3218749999996</v>
+        <f>C28/C118</f>
+        <v>1666.5578125</v>
       </c>
       <c r="D119" s="4">
-        <f t="shared" ref="D119:J119" si="0">D89/D118</f>
-        <v>5238.4122023809523</v>
+        <f t="shared" ref="D119:J119" si="0">D28/D118</f>
+        <v>1847.3067336309523</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="0"/>
-        <v>3743.213068181818</v>
+        <v>1511.7688210227273</v>
       </c>
       <c r="F119" s="4">
         <f t="shared" si="0"/>
-        <v>4402.104166666667</v>
+        <v>1433.1142578125</v>
       </c>
       <c r="G119" s="4">
         <f t="shared" si="0"/>
-        <v>3694.0740131578946</v>
+        <v>1443.815583881579</v>
       </c>
       <c r="H119" s="4">
         <f t="shared" si="0"/>
-        <v>5267.913722826087</v>
+        <v>1281.1119225543478</v>
       </c>
       <c r="I119" s="4">
         <f t="shared" si="0"/>
-        <v>9765.7127976190477</v>
+        <v>1645.1590401785713</v>
       </c>
       <c r="J119" s="4">
         <f t="shared" si="0"/>
-        <v>17558.257102272728</v>
+        <v>1799.8595525568182</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C120" s="4">
-        <f>C119*7</f>
-        <v>38635.253124999996</v>
+        <f>C119*5</f>
+        <v>8332.7890625</v>
       </c>
       <c r="D120" s="4">
         <f>D119*D118</f>
-        <v>110006.65625</v>
+        <v>38793.44140625</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" ref="E120:J120" si="1">E119*E118</f>
-        <v>82350.6875</v>
+        <v>33258.9140625</v>
       </c>
       <c r="F120" s="4">
         <f t="shared" si="1"/>
-        <v>79237.875</v>
+        <v>25796.056640625</v>
       </c>
       <c r="G120" s="4">
         <f t="shared" si="1"/>
-        <v>70187.40625</v>
+        <v>27432.49609375</v>
       </c>
       <c r="H120" s="4">
         <f t="shared" si="1"/>
-        <v>121162.015625</v>
+        <v>29465.57421875</v>
       </c>
       <c r="I120" s="4">
         <f t="shared" si="1"/>
-        <v>205079.96875</v>
+        <v>34548.33984375</v>
       </c>
       <c r="J120" s="4">
         <f t="shared" si="1"/>
-        <v>386281.65625</v>
+        <v>39596.91015625</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B121" s="3">
-        <v>482313</v>
+        <v>60140</v>
       </c>
       <c r="C121" s="4">
         <f>B121-C120</f>
-        <v>443677.74687500001</v>
+        <v>51807.2109375</v>
       </c>
       <c r="D121" s="4">
         <f>C121-D120</f>
-        <v>333671.09062500001</v>
+        <v>13013.76953125</v>
       </c>
       <c r="E121" s="4">
-        <f t="shared" ref="E121:J121" si="2">D121-E120</f>
-        <v>251320.40312500001</v>
-      </c>
-      <c r="F121" s="4">
-        <f t="shared" si="2"/>
-        <v>172082.52812500001</v>
-      </c>
-      <c r="G121" s="4">
-        <f t="shared" si="2"/>
-        <v>101895.12187500001</v>
-      </c>
-      <c r="H121" s="4">
-        <f>G121/H119</f>
-        <v>19.342595045451155</v>
-      </c>
+        <f>D121/E119</f>
+        <v>8.6083066076505332</v>
+      </c>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C122" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D122" s="3">
         <v>21</v>
-      </c>
-      <c r="E122" s="3">
-        <v>22</v>
-      </c>
-      <c r="F122" s="3">
-        <v>18</v>
-      </c>
-      <c r="G122" s="3">
-        <v>19</v>
-      </c>
-      <c r="H122" s="3">
-        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
